--- a/财务/额外开销.xlsx
+++ b/财务/额外开销.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>印名片</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,106 @@
   </si>
   <si>
     <t>微信认证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晓天出差住宿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油罐车事故</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做假的资金条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给李剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油罐车尾款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淄博出差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作假的资金流水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做假的合同章(3个)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪梅那边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防静电服+鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓聘账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晓天报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晓天报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>违章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喇叭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给交警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晓天报销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办社保公积金开户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新车定金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,10 +190,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -419,18 +524,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +543,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -446,7 +551,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -454,33 +559,243 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>4</v>
-      </c>
-      <c r="B4">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>3</v>
       </c>
       <c r="B5">
         <v>40000</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B12">
         <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>8800</v>
+      </c>
+      <c r="D18">
+        <v>315000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33">
+        <f>SUM(B1:B31)</f>
+        <v>292910</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/财务/额外开销.xlsx
+++ b/财务/额外开销.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>印名片</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,14 +142,18 @@
   </si>
   <si>
     <t>新车定金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张主任好处费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -523,19 +527,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +547,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -551,7 +555,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -559,7 +563,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -567,7 +571,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -575,7 +579,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -583,7 +587,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -591,7 +595,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -599,7 +603,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -607,7 +611,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -615,7 +619,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -623,7 +627,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -631,7 +635,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -639,7 +643,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -647,7 +651,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -655,7 +659,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -663,7 +667,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -671,7 +675,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -682,7 +686,7 @@
         <v>315000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -690,106 +694,114 @@
         <v>18600</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>560</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>397</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>688</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>2000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>680</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>50000</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33">
-        <f>SUM(B1:B31)</f>
-        <v>292910</v>
+    <row r="34" spans="2:2">
+      <c r="B34">
+        <f>SUM(B1:B32)</f>
+        <v>293910</v>
       </c>
     </row>
   </sheetData>

--- a/财务/额外开销.xlsx
+++ b/财务/额外开销.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>印名片</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>张主任好处费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滨蓟财务2017.8-2018.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +535,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -798,10 +802,18 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="B34">
-        <f>SUM(B1:B32)</f>
-        <v>293910</v>
+        <f>SUM(B1:B33)</f>
+        <v>296410</v>
       </c>
     </row>
   </sheetData>

--- a/财务/额外开销.xlsx
+++ b/财务/额外开销.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>印名片</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>滨蓟财务2017.8-2018.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路石财务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西航危化证变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业执照、税务、银行变更</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,15 +544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -811,9 +823,33 @@
       </c>
     </row>
     <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
       <c r="B34">
-        <f>SUM(B1:B33)</f>
-        <v>296410</v>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41">
+        <f>SUM(B1:B36)</f>
+        <v>302710</v>
       </c>
     </row>
   </sheetData>

--- a/财务/额外开销.xlsx
+++ b/财务/额外开销.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>印名片</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>营业执照、税务、银行变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路石财务2017.12-2018.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出差聊城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京北尽调</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -846,10 +858,34 @@
         <v>2600</v>
       </c>
     </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>2500</v>
+      </c>
+    </row>
     <row r="41" spans="1:2">
       <c r="B41">
-        <f>SUM(B1:B36)</f>
-        <v>302710</v>
+        <f>SUM(B1:B39)</f>
+        <v>308810</v>
       </c>
     </row>
   </sheetData>

--- a/财务/额外开销.xlsx
+++ b/财务/额外开销.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>印名片</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +174,10 @@
   </si>
   <si>
     <t>京北尽调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国华奖金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -882,10 +886,18 @@
         <v>2500</v>
       </c>
     </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2000</v>
+      </c>
+    </row>
     <row r="41" spans="1:2">
       <c r="B41">
-        <f>SUM(B1:B39)</f>
-        <v>308810</v>
+        <f>SUM(B1:B40)</f>
+        <v>310810</v>
       </c>
     </row>
   </sheetData>

--- a/财务/额外开销.xlsx
+++ b/财务/额外开销.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>印名片</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,10 @@
   </si>
   <si>
     <t>国华奖金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -895,9 +899,17 @@
       </c>
     </row>
     <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
       <c r="B41">
-        <f>SUM(B1:B40)</f>
-        <v>310810</v>
+        <v>181264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42">
+        <f>SUM(B1:B41)</f>
+        <v>492074</v>
       </c>
     </row>
   </sheetData>

--- a/财务/额外开销.xlsx
+++ b/财务/额外开销.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>印名片</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +182,14 @@
   </si>
   <si>
     <t>FA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单大师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -907,9 +915,25 @@
       </c>
     </row>
     <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
       <c r="B42">
-        <f>SUM(B1:B41)</f>
-        <v>492074</v>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44">
+        <f>SUM(B1:B43)</f>
+        <v>496274</v>
       </c>
     </row>
   </sheetData>

--- a/财务/额外开销.xlsx
+++ b/财务/额外开销.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>印名片</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,18 +65,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>买油</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>淄博出差</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>买油</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>作假的资金流水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新车定金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张主任好处费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,6 +178,26 @@
   </si>
   <si>
     <t>阿里云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京车定金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京车尾款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购置税差额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂靠费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -609,7 +617,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>600</v>
@@ -633,7 +641,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>300</v>
@@ -641,7 +649,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -657,7 +665,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>300</v>
@@ -665,7 +673,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>300</v>
@@ -681,7 +689,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>160</v>
@@ -711,7 +719,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -719,148 +727,145 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B18">
-        <v>8800</v>
-      </c>
-      <c r="D18">
-        <v>315000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>18600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
       <c r="B23">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B30">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B31">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>50000</v>
+        <v>29500</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B33">
-        <v>2500</v>
+        <v>53881.1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>1200</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B35">
         <v>2500</v>
@@ -868,72 +873,96 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B36">
-        <v>2600</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B37">
-        <v>1400</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B38">
-        <v>2200</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B39">
-        <v>2500</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B40">
-        <v>2000</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B41">
-        <v>181264</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B42">
-        <v>1200</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B43">
+        <v>181264</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45">
         <v>3000</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="B44">
-        <f>SUM(B1:B43)</f>
-        <v>496274</v>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47">
+        <f>SUM(B1:B46)</f>
+        <v>737404.1</v>
       </c>
     </row>
   </sheetData>
